--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS7.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS7.xlsx
@@ -19,7 +19,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="145">
+  <si>
+    <t>Signal_Value_4</t>
+  </si>
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
   <si>
     <t>Signal_Value_25</t>
   </si>
@@ -213,6 +276,108 @@
     <t>Signal_Value_88</t>
   </si>
   <si>
+    <t>Signal_Value_89</t>
+  </si>
+  <si>
+    <t>Signal_Value_90</t>
+  </si>
+  <si>
+    <t>Signal_Value_91</t>
+  </si>
+  <si>
+    <t>Signal_Value_92</t>
+  </si>
+  <si>
+    <t>Signal_Value_93</t>
+  </si>
+  <si>
+    <t>Signal_Value_94</t>
+  </si>
+  <si>
+    <t>Signal_Value_95</t>
+  </si>
+  <si>
+    <t>Signal_Value_96</t>
+  </si>
+  <si>
+    <t>Signal_Value_97</t>
+  </si>
+  <si>
+    <t>Signal_Value_98</t>
+  </si>
+  <si>
+    <t>Signal_Value_99</t>
+  </si>
+  <si>
+    <t>Signal_Value_100</t>
+  </si>
+  <si>
+    <t>Signal_Value_101</t>
+  </si>
+  <si>
+    <t>Signal_Value_102</t>
+  </si>
+  <si>
+    <t>Signal_Value_103</t>
+  </si>
+  <si>
+    <t>Signal_Value_104</t>
+  </si>
+  <si>
+    <t>Signal_Value_105</t>
+  </si>
+  <si>
+    <t>Signal_Value_106</t>
+  </si>
+  <si>
+    <t>Signal_Value_107</t>
+  </si>
+  <si>
+    <t>Signal_Value_108</t>
+  </si>
+  <si>
+    <t>Signal_Value_109</t>
+  </si>
+  <si>
+    <t>Signal_Value_110</t>
+  </si>
+  <si>
+    <t>Signal_Value_111</t>
+  </si>
+  <si>
+    <t>Signal_Value_112</t>
+  </si>
+  <si>
+    <t>Signal_Value_113</t>
+  </si>
+  <si>
+    <t>Signal_Value_114</t>
+  </si>
+  <si>
+    <t>Signal_Value_115</t>
+  </si>
+  <si>
+    <t>Signal_Value_116</t>
+  </si>
+  <si>
+    <t>Signal_Value_117</t>
+  </si>
+  <si>
+    <t>Signal_Value_118</t>
+  </si>
+  <si>
+    <t>Signal_Value_119</t>
+  </si>
+  <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
+    <t>Signal_Value_121</t>
+  </si>
+  <si>
+    <t>Signal_Value_122</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -285,10 +450,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -649,15 +811,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM6"/>
+  <dimension ref="A1:DP6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:120">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -851,10 +1013,175 @@
       <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="2" spans="1:65">
+    <row r="2" spans="1:120">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -863,100 +1190,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03050648681765252</v>
+        <v>0.1109168388758852</v>
       </c>
       <c r="E2">
-        <v>0.02680883073581058</v>
+        <v>0.09801862157907219</v>
       </c>
       <c r="F2">
-        <v>0.02012021488938407</v>
+        <v>0.05256478369803902</v>
       </c>
       <c r="G2">
-        <v>0.01391785566917289</v>
+        <v>0.00549918103020723</v>
       </c>
       <c r="H2">
-        <v>0.005242001844428404</v>
+        <v>0.002750249460796341</v>
       </c>
       <c r="I2">
-        <v>0.001607750497321449</v>
+        <v>0.001883962562117618</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00705253526248476</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1209409516042891</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1051260111549401</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.002975932207450726</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.03455560262667914</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.01005050561155453</v>
       </c>
       <c r="Q2">
-        <v>0.001107019004554825</v>
+        <v>0.116377496782042</v>
       </c>
       <c r="R2">
-        <v>0.004331873319220057</v>
+        <v>0.0424042330746932</v>
       </c>
       <c r="S2">
-        <v>0.007462972978583452</v>
+        <v>0.0001494203465085244</v>
       </c>
       <c r="T2">
-        <v>0.00975146789139978</v>
+        <v>0.02239838927875205</v>
       </c>
       <c r="U2">
-        <v>0.01431437832797875</v>
+        <v>0.0259685076790924</v>
       </c>
       <c r="V2">
-        <v>0.01249959862037034</v>
+        <v>0.03495227197013263</v>
       </c>
       <c r="W2">
-        <v>0.01391825196801525</v>
+        <v>0.005849743037021723</v>
       </c>
       <c r="X2">
-        <v>0.00975146789139978</v>
+        <v>0.05716486501613311</v>
       </c>
       <c r="Y2">
-        <v>0.006806858151135969</v>
+        <v>0.06253512634750567</v>
       </c>
       <c r="Z2">
-        <v>0.004286771738920816</v>
+        <v>0.004490427804738595</v>
       </c>
       <c r="AA2">
-        <v>0.001151925412807607</v>
+        <v>0.001117232887579984</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.01041677977092705</v>
       </c>
       <c r="AC2">
-        <v>0.009341650741117915</v>
+        <v>0.01310743764925358</v>
       </c>
       <c r="AD2">
-        <v>0.09639834277992372</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.1324484318526111</v>
+        <v>5.186473287777203E-05</v>
       </c>
       <c r="AF2">
-        <v>0.01839190892386409</v>
+        <v>0.0008908653636968321</v>
       </c>
       <c r="AG2">
-        <v>0.1349763461936438</v>
+        <v>0.001148926894174293</v>
       </c>
       <c r="AH2">
-        <v>0.03890130983573268</v>
+        <v>0.01884531325156561</v>
       </c>
       <c r="AI2">
-        <v>0.3859562839149501</v>
+        <v>0.02979592243978879</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -1048,10 +1375,175 @@
       <c r="BM2">
         <v>0</v>
       </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:65">
+    <row r="3" spans="1:120">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1138,100 +1630,100 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.01390212536377921</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.003301186668412392</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.002257090055360752</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.02316282770723499</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.03190787604457312</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.002956578467778839</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.01324599240310744</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.06239572765489638</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.03239931627738118</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.000324682896997896</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.01816941990682625</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.00839902240351131</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.006487802912059826</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.004617555333851259</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0008358930712149046</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.009568138348997723</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.001637178004735993</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.04363944536765619</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0002724049112787021</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.04018067427969713</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.02000247576295475</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.07014053196544409</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.2089460182258961</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.08380524776528292</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0008496715572944312</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.07405932706127401</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.1251676546322695</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.07459039346788475</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.01812396486159959</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.004197585493838658</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0004561911269097231</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
         <v>0</v>
@@ -1245,10 +1737,175 @@
       <c r="BM3">
         <v>0</v>
       </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0.05191433296947186</v>
+      </c>
+      <c r="CL3">
+        <v>0.01494243185114909</v>
+      </c>
+      <c r="CM3">
+        <v>0.3004778889019371</v>
+      </c>
+      <c r="CN3">
+        <v>0.0001282362472046128</v>
+      </c>
+      <c r="CO3">
+        <v>0.03058796372529687</v>
+      </c>
+      <c r="CP3">
+        <v>0.07595127282225707</v>
+      </c>
+      <c r="CQ3">
+        <v>0.02205807852282756</v>
+      </c>
+      <c r="CR3">
+        <v>0.01779831301687777</v>
+      </c>
+      <c r="CS3">
+        <v>0.04634305893778202</v>
+      </c>
+      <c r="CT3">
+        <v>0.004389373983198716</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0.0077851364455784</v>
+      </c>
+      <c r="CW3">
+        <v>0.03456501087875082</v>
+      </c>
+      <c r="CX3">
+        <v>0.01181799321698572</v>
+      </c>
+      <c r="CY3">
+        <v>0.005906384981640764</v>
+      </c>
+      <c r="CZ3">
+        <v>0.003450077082261195</v>
+      </c>
+      <c r="DA3">
+        <v>0.0006865644573274061</v>
+      </c>
+      <c r="DB3">
+        <v>0.08159080548408974</v>
+      </c>
+      <c r="DC3">
+        <v>0.0002204675905512595</v>
+      </c>
+      <c r="DD3">
+        <v>0.089726454929763</v>
+      </c>
+      <c r="DE3">
+        <v>0.001470701168494257</v>
+      </c>
+      <c r="DF3">
+        <v>0.05285400672598794</v>
+      </c>
+      <c r="DG3">
+        <v>0.03956289629717965</v>
+      </c>
+      <c r="DH3">
+        <v>0.0291670048982344</v>
+      </c>
+      <c r="DI3">
+        <v>0.002869305087769536</v>
+      </c>
+      <c r="DJ3">
+        <v>0.003749057824365744</v>
+      </c>
+      <c r="DK3">
+        <v>0.009250022636168451</v>
+      </c>
+      <c r="DL3">
+        <v>0.005214068060793072</v>
+      </c>
+      <c r="DM3">
+        <v>0.006207486298145839</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0.004685685872233687</v>
+      </c>
+      <c r="DP3">
+        <v>0.04462991908567625</v>
+      </c>
     </row>
-    <row r="4" spans="1:65">
+    <row r="4" spans="1:120">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1332,100 +1989,100 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.003839303147383113</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.001801924355789174</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0007577804192949423</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.004804298891780294</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.005768423986254161</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.004949927978541539</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.02751427377071012</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.01891837743963679</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.009471918358513317</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.03552758202079193</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.004619230064150057</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.005640251271973394</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.003311427214714984</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.001189523730024565</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>1.339577150823066E-06</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.01013602789917644</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0007672063015769106</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.06143794774022533</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.1278902964642732</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.025870586308902</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.002143294196137603</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0159508908753716</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.1183959082633532</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.2537672325150772</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.09595326745265702</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0001103170161860577</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.06500820715027825</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.08379251177629751</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.009108890371471241</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.000526651016058405</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.001025182426248885</v>
+        <v>0</v>
       </c>
       <c r="BI4">
         <v>0</v>
@@ -1442,10 +2099,175 @@
       <c r="BM4">
         <v>0</v>
       </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0.1041778850291988</v>
+      </c>
+      <c r="CJ4">
+        <v>0.03322379750548045</v>
+      </c>
+      <c r="CK4">
+        <v>0.05439219733790112</v>
+      </c>
+      <c r="CL4">
+        <v>0.001215267372804146</v>
+      </c>
+      <c r="CM4">
+        <v>0.04657048367036953</v>
+      </c>
+      <c r="CN4">
+        <v>0.0007227223011296423</v>
+      </c>
+      <c r="CO4">
+        <v>0.0165691229883699</v>
+      </c>
+      <c r="CP4">
+        <v>0.03378499008862793</v>
+      </c>
+      <c r="CQ4">
+        <v>0.06409891098784674</v>
+      </c>
+      <c r="CR4">
+        <v>0.06373911583058849</v>
+      </c>
+      <c r="CS4">
+        <v>0.002594781330742233</v>
+      </c>
+      <c r="CT4">
+        <v>0.1422374588261857</v>
+      </c>
+      <c r="CU4">
+        <v>0.002686238052387051</v>
+      </c>
+      <c r="CV4">
+        <v>0.01168341321759615</v>
+      </c>
+      <c r="CW4">
+        <v>0.05169882700351445</v>
+      </c>
+      <c r="CX4">
+        <v>0.03388705544629269</v>
+      </c>
+      <c r="CY4">
+        <v>0.006882595537912927</v>
+      </c>
+      <c r="CZ4">
+        <v>0.02835630064355156</v>
+      </c>
+      <c r="DA4">
+        <v>0.03453425643923775</v>
+      </c>
+      <c r="DB4">
+        <v>0.01325350420312756</v>
+      </c>
+      <c r="DC4">
+        <v>0.08124886341503423</v>
+      </c>
+      <c r="DD4">
+        <v>0.07714872628752674</v>
+      </c>
+      <c r="DE4">
+        <v>0.002060859624291939</v>
+      </c>
+      <c r="DF4">
+        <v>0.008047743603850806</v>
+      </c>
+      <c r="DG4">
+        <v>0.01424838660396732</v>
+      </c>
+      <c r="DH4">
+        <v>0.01242836539106132</v>
+      </c>
+      <c r="DI4">
+        <v>0.0006097786995632538</v>
+      </c>
+      <c r="DJ4">
+        <v>0.01887642069969094</v>
+      </c>
+      <c r="DK4">
+        <v>1.783342588494939E-05</v>
+      </c>
+      <c r="DL4">
+        <v>0.008997756758234722</v>
+      </c>
+      <c r="DM4">
+        <v>0.01961489145908725</v>
+      </c>
+      <c r="DN4">
+        <v>0.01039145021894176</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:65">
+    <row r="5" spans="1:120">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1529,100 +2351,100 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.004140177931107904</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.01036560431461604</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0203966369295076</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.00319459164396396</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.02442434599764984</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.02202601974076688</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0007528592629087293</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.006814548367164334</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.07307589735546681</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.02450199206158501</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0005209568473789633</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0131351283677689</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.01360413937119502</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.01283796602491339</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.02535373995224983</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>3.314728163689964E-06</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.016474729127887</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.00370692420793766</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.04803997141131578</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0003686530698784081</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.05546440140551882</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.01917413135780137</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.03060034013777641</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.2243423802788543</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.1067666860647081</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.002296089998666213</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.04690368229878014</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.08672298011035158</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.06626789134089327</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.02710535563919457</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.01061786465402923</v>
+        <v>0</v>
       </c>
       <c r="BI5">
         <v>0</v>
@@ -1639,10 +2461,175 @@
       <c r="BM5">
         <v>0</v>
       </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0.03274599106354534</v>
+      </c>
+      <c r="CL5">
+        <v>0.06071934071153649</v>
+      </c>
+      <c r="CM5">
+        <v>0.195031555805485</v>
+      </c>
+      <c r="CN5">
+        <v>0.03183437571313912</v>
+      </c>
+      <c r="CO5">
+        <v>0.03380590121938282</v>
+      </c>
+      <c r="CP5">
+        <v>0.06661591200759817</v>
+      </c>
+      <c r="CQ5">
+        <v>0.01164072625051132</v>
+      </c>
+      <c r="CR5">
+        <v>0.01532319379920609</v>
+      </c>
+      <c r="CS5">
+        <v>0.06528932366873275</v>
+      </c>
+      <c r="CT5">
+        <v>0.03710735866533446</v>
+      </c>
+      <c r="CU5">
+        <v>9.343738410103067E-05</v>
+      </c>
+      <c r="CV5">
+        <v>0.005046753341727227</v>
+      </c>
+      <c r="CW5">
+        <v>0.05539253664456181</v>
+      </c>
+      <c r="CX5">
+        <v>0.005607750518455566</v>
+      </c>
+      <c r="CY5">
+        <v>9.343738410103067E-05</v>
+      </c>
+      <c r="CZ5">
+        <v>0.01310180674810954</v>
+      </c>
+      <c r="DA5">
+        <v>0.06425076007416035</v>
+      </c>
+      <c r="DB5">
+        <v>0.04428928658919569</v>
+      </c>
+      <c r="DC5">
+        <v>0.003643709203461678</v>
+      </c>
+      <c r="DD5">
+        <v>0.06006637483009188</v>
+      </c>
+      <c r="DE5">
+        <v>0.001259852560628774</v>
+      </c>
+      <c r="DF5">
+        <v>0.08386717983402107</v>
+      </c>
+      <c r="DG5">
+        <v>0.05429067990765424</v>
+      </c>
+      <c r="DH5">
+        <v>0.006682423418554136</v>
+      </c>
+      <c r="DI5">
+        <v>0.00575257526344548</v>
+      </c>
+      <c r="DJ5">
+        <v>0.0002668504366110743</v>
+      </c>
+      <c r="DK5">
+        <v>0.005655651333231644</v>
+      </c>
+      <c r="DL5">
+        <v>0.003547562355040397</v>
+      </c>
+      <c r="DM5">
+        <v>8.460095131175356E-07</v>
+      </c>
+      <c r="DN5">
+        <v>0.006639569224048318</v>
+      </c>
+      <c r="DO5">
+        <v>0.001386665296208698</v>
+      </c>
+      <c r="DP5">
+        <v>0.02895061273860577</v>
+      </c>
     </row>
-    <row r="6" spans="1:65">
+    <row r="6" spans="1:120">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1741,100 +2728,265 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.02440320856801219</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.01629317974767848</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.01727032230114284</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0008817625069802066</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.03461413336870918</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.01974881853803264</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0007986685190845365</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.02261362655788341</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.07541084390178279</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.005781058302863247</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.008956097014734854</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.03292068885324696</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.006203775619790468</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.02016351073299351</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.009437258176086528</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.009500367502817467</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.009164034729839697</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.01462583485117724</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0367154055420521</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.02063641435996209</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.05249887202627068</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.01382389679199572</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.1150052731854521</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.1796307068642891</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.006445366849799715</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.04043514854569097</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.07940878062907235</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.06823203303984439</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.036337031234002</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.008188314717629519</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.001499514562969642</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.01235605185811342</v>
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0.1424731175609389</v>
+      </c>
+      <c r="CL6">
+        <v>0.08619812280549928</v>
+      </c>
+      <c r="CM6">
+        <v>0.0532550268195611</v>
+      </c>
+      <c r="CN6">
+        <v>0.001470837752618813</v>
+      </c>
+      <c r="CO6">
+        <v>0.001835070836125553</v>
+      </c>
+      <c r="CP6">
+        <v>0.002253251232091272</v>
+      </c>
+      <c r="CQ6">
+        <v>0.0009278954010795227</v>
+      </c>
+      <c r="CR6">
+        <v>0.1372279228436545</v>
+      </c>
+      <c r="CS6">
+        <v>0.1415403470828591</v>
+      </c>
+      <c r="CT6">
+        <v>0.001090051130534075</v>
+      </c>
+      <c r="CU6">
+        <v>0.02787295570237678</v>
+      </c>
+      <c r="CV6">
+        <v>0.03689752815603739</v>
+      </c>
+      <c r="CW6">
+        <v>0.0006617836668068813</v>
+      </c>
+      <c r="CX6">
+        <v>0.04427760395265541</v>
+      </c>
+      <c r="CY6">
+        <v>0.03267031140274592</v>
+      </c>
+      <c r="CZ6">
+        <v>0.01684346291373054</v>
+      </c>
+      <c r="DA6">
+        <v>0.03960845117634164</v>
+      </c>
+      <c r="DB6">
+        <v>0.003959681526657994</v>
+      </c>
+      <c r="DC6">
+        <v>0.08870540792223203</v>
+      </c>
+      <c r="DD6">
+        <v>0.002109573078737637</v>
+      </c>
+      <c r="DE6">
+        <v>0.03814358554675157</v>
+      </c>
+      <c r="DF6">
+        <v>0.03401977247601293</v>
+      </c>
+      <c r="DG6">
+        <v>0.001130823201667158</v>
+      </c>
+      <c r="DH6">
+        <v>0.00467759507919355</v>
+      </c>
+      <c r="DI6">
+        <v>0.0002211270830929746</v>
+      </c>
+      <c r="DJ6">
+        <v>0.001922571078715402</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0.001691787429461703</v>
+      </c>
+      <c r="DM6">
+        <v>0.008182528474609332</v>
+      </c>
+      <c r="DN6">
+        <v>0.008865329470638849</v>
+      </c>
+      <c r="DO6">
+        <v>0.01706699098343153</v>
+      </c>
+      <c r="DP6">
+        <v>0.02219948621314078</v>
       </c>
     </row>
   </sheetData>
@@ -1844,15 +2996,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM6"/>
+  <dimension ref="A1:DP6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:120">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2046,10 +3198,175 @@
       <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="2" spans="1:65">
+    <row r="2" spans="1:120">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2058,97 +3375,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03050648681765252</v>
+        <v>0.1109168388758852</v>
       </c>
       <c r="E2">
-        <v>0.0573153175534631</v>
+        <v>0.2089354604549574</v>
       </c>
       <c r="F2">
-        <v>0.07743553244284718</v>
+        <v>0.2615002441529964</v>
       </c>
       <c r="G2">
-        <v>0.09135338811202007</v>
+        <v>0.2669994251832037</v>
       </c>
       <c r="H2">
-        <v>0.09659538995644847</v>
+        <v>0.269749674644</v>
       </c>
       <c r="I2">
-        <v>0.09820314045376992</v>
+        <v>0.2716336372061176</v>
       </c>
       <c r="J2">
-        <v>0.09820314045376992</v>
+        <v>0.2786861724686024</v>
       </c>
       <c r="K2">
-        <v>0.09820314045376992</v>
+        <v>0.3996271240728915</v>
       </c>
       <c r="L2">
-        <v>0.09820314045376992</v>
+        <v>0.5047531352278316</v>
       </c>
       <c r="M2">
-        <v>0.09820314045376992</v>
+        <v>0.5077290674352823</v>
       </c>
       <c r="N2">
-        <v>0.09820314045376992</v>
+        <v>0.5422846700619615</v>
       </c>
       <c r="O2">
-        <v>0.09820314045376992</v>
+        <v>0.5422846700619615</v>
       </c>
       <c r="P2">
-        <v>0.09820314045376992</v>
+        <v>0.552335175673516</v>
       </c>
       <c r="Q2">
-        <v>0.09931015945832475</v>
+        <v>0.668712672455558</v>
       </c>
       <c r="R2">
-        <v>0.1036420327775448</v>
+        <v>0.7111169055302512</v>
       </c>
       <c r="S2">
-        <v>0.1111050057561283</v>
+        <v>0.7112663258767598</v>
       </c>
       <c r="T2">
-        <v>0.120856473647528</v>
+        <v>0.7336647151555118</v>
       </c>
       <c r="U2">
-        <v>0.1351708519755068</v>
+        <v>0.7596332228346042</v>
       </c>
       <c r="V2">
-        <v>0.1476704505958771</v>
+        <v>0.7945854948047368</v>
       </c>
       <c r="W2">
-        <v>0.1615887025638924</v>
+        <v>0.8004352378417585</v>
       </c>
       <c r="X2">
-        <v>0.1713401704552921</v>
+        <v>0.8576001028578917</v>
       </c>
       <c r="Y2">
-        <v>0.1781470286064281</v>
+        <v>0.9201352292053974</v>
       </c>
       <c r="Z2">
-        <v>0.1824338003453489</v>
+        <v>0.924625657010136</v>
       </c>
       <c r="AA2">
-        <v>0.1835857257581565</v>
+        <v>0.925742889897716</v>
       </c>
       <c r="AB2">
-        <v>0.1835857257581565</v>
+        <v>0.9361596696686431</v>
       </c>
       <c r="AC2">
-        <v>0.1929273764992744</v>
+        <v>0.9492671073178967</v>
       </c>
       <c r="AD2">
-        <v>0.2893257192791981</v>
+        <v>0.9492671073178967</v>
       </c>
       <c r="AE2">
-        <v>0.4217741511318092</v>
+        <v>0.9493189720507744</v>
       </c>
       <c r="AF2">
-        <v>0.4401660600556733</v>
+        <v>0.9502098374144713</v>
       </c>
       <c r="AG2">
-        <v>0.5751424062493171</v>
+        <v>0.9513587643086456</v>
       </c>
       <c r="AH2">
-        <v>0.6140437160850498</v>
+        <v>0.9702040775602112</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -2243,10 +3560,175 @@
       <c r="BM2">
         <v>1</v>
       </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
+        <v>1</v>
+      </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1</v>
+      </c>
+      <c r="CD2">
+        <v>1</v>
+      </c>
+      <c r="CE2">
+        <v>1</v>
+      </c>
+      <c r="CF2">
+        <v>1</v>
+      </c>
+      <c r="CG2">
+        <v>1</v>
+      </c>
+      <c r="CH2">
+        <v>1</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>1</v>
+      </c>
+      <c r="CK2">
+        <v>1</v>
+      </c>
+      <c r="CL2">
+        <v>1</v>
+      </c>
+      <c r="CM2">
+        <v>1</v>
+      </c>
+      <c r="CN2">
+        <v>1</v>
+      </c>
+      <c r="CO2">
+        <v>1</v>
+      </c>
+      <c r="CP2">
+        <v>1</v>
+      </c>
+      <c r="CQ2">
+        <v>1</v>
+      </c>
+      <c r="CR2">
+        <v>1</v>
+      </c>
+      <c r="CS2">
+        <v>1</v>
+      </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
+      <c r="CX2">
+        <v>1</v>
+      </c>
+      <c r="CY2">
+        <v>1</v>
+      </c>
+      <c r="CZ2">
+        <v>1</v>
+      </c>
+      <c r="DA2">
+        <v>1</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2">
+        <v>1</v>
+      </c>
+      <c r="DD2">
+        <v>1</v>
+      </c>
+      <c r="DE2">
+        <v>1</v>
+      </c>
+      <c r="DF2">
+        <v>1</v>
+      </c>
+      <c r="DG2">
+        <v>1</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>1</v>
+      </c>
+      <c r="DJ2">
+        <v>1</v>
+      </c>
+      <c r="DK2">
+        <v>1</v>
+      </c>
+      <c r="DL2">
+        <v>1</v>
+      </c>
+      <c r="DM2">
+        <v>1</v>
+      </c>
+      <c r="DN2">
+        <v>1</v>
+      </c>
+      <c r="DO2">
+        <v>1</v>
+      </c>
+      <c r="DP2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:65">
+    <row r="3" spans="1:120">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2333,117 +3815,282 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.01390212536377921</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.01390212536377921</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0172033120321916</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.01946040208755235</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.04262322979478733</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.07453110583936046</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0774876843071393</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.09073367671024674</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.1531294043651431</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.1855287206425243</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.1858534035395222</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.2040228234463484</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.2124218458498597</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.2189096487619196</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.2235272040957708</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.2243630971669857</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.2339312355159834</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.2355684135207194</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.2792078588883756</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.2794802637996543</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.3196609380793515</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.3396634138423062</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.4098039458077504</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.6187499640336465</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.7025552117989293</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.7034048833562238</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.7774642104174978</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.9026318650497673</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.9772222585176521</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.9953462233792517</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.9995438088730904</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0.05191433296947186</v>
+      </c>
+      <c r="CL3">
+        <v>0.06685676482062096</v>
+      </c>
+      <c r="CM3">
+        <v>0.367334653722558</v>
+      </c>
+      <c r="CN3">
+        <v>0.3674628899697626</v>
+      </c>
+      <c r="CO3">
+        <v>0.3980508536950595</v>
+      </c>
+      <c r="CP3">
+        <v>0.4740021265173165</v>
+      </c>
+      <c r="CQ3">
+        <v>0.4960602050401441</v>
+      </c>
+      <c r="CR3">
+        <v>0.5138585180570219</v>
+      </c>
+      <c r="CS3">
+        <v>0.5602015769948039</v>
+      </c>
+      <c r="CT3">
+        <v>0.5645909509780026</v>
+      </c>
+      <c r="CU3">
+        <v>0.5645909509780026</v>
+      </c>
+      <c r="CV3">
+        <v>0.572376087423581</v>
+      </c>
+      <c r="CW3">
+        <v>0.6069410983023319</v>
+      </c>
+      <c r="CX3">
+        <v>0.6187590915193176</v>
+      </c>
+      <c r="CY3">
+        <v>0.6246654765009584</v>
+      </c>
+      <c r="CZ3">
+        <v>0.6281155535832196</v>
+      </c>
+      <c r="DA3">
+        <v>0.628802118040547</v>
+      </c>
+      <c r="DB3">
+        <v>0.7103929235246367</v>
+      </c>
+      <c r="DC3">
+        <v>0.710613391115188</v>
+      </c>
+      <c r="DD3">
+        <v>0.8003398460449509</v>
+      </c>
+      <c r="DE3">
+        <v>0.8018105472134451</v>
+      </c>
+      <c r="DF3">
+        <v>0.8546645539394331</v>
+      </c>
+      <c r="DG3">
+        <v>0.8942274502366128</v>
+      </c>
+      <c r="DH3">
+        <v>0.9233944551348472</v>
+      </c>
+      <c r="DI3">
+        <v>0.9262637602226167</v>
+      </c>
+      <c r="DJ3">
+        <v>0.9300128180469824</v>
+      </c>
+      <c r="DK3">
+        <v>0.9392628406831509</v>
+      </c>
+      <c r="DL3">
+        <v>0.944476908743944</v>
+      </c>
+      <c r="DM3">
+        <v>0.9506843950420898</v>
+      </c>
+      <c r="DN3">
+        <v>0.9506843950420898</v>
+      </c>
+      <c r="DO3">
+        <v>0.9553700809143235</v>
+      </c>
+      <c r="DP3">
+        <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:65">
+    <row r="4" spans="1:120">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2527,120 +4174,285 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.003839303147383113</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.005641227503172287</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.006399007922467229</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.01120330681424752</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.01697173080050168</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.02192165877904322</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.04943593254975334</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.06835430998939013</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.07782622834790344</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.1133538103686954</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.1133538103686954</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.1179730404328454</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.1236132917048188</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.1269247189195338</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.1281142426495584</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.1281155822267092</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.1382516101258856</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.1390188164274626</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.2004567641676879</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.3283470606319611</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.3542176469408631</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.3563609411370007</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.3723118320123723</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.4907077402757255</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.7444749727908027</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.8404282402434596</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.8405385572596457</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.9055467644099239</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.9893392761862214</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.9984481665576926</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.9989748175737511</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0.1041778850291988</v>
+      </c>
+      <c r="CJ4">
+        <v>0.1374016825346793</v>
+      </c>
+      <c r="CK4">
+        <v>0.1917938798725804</v>
+      </c>
+      <c r="CL4">
+        <v>0.1930091472453846</v>
+      </c>
+      <c r="CM4">
+        <v>0.2395796309157541</v>
+      </c>
+      <c r="CN4">
+        <v>0.2403023532168837</v>
+      </c>
+      <c r="CO4">
+        <v>0.2568714762052536</v>
+      </c>
+      <c r="CP4">
+        <v>0.2906564662938815</v>
+      </c>
+      <c r="CQ4">
+        <v>0.3547553772817283</v>
+      </c>
+      <c r="CR4">
+        <v>0.4184944931123168</v>
+      </c>
+      <c r="CS4">
+        <v>0.421089274443059</v>
+      </c>
+      <c r="CT4">
+        <v>0.5633267332692448</v>
+      </c>
+      <c r="CU4">
+        <v>0.5660129713216319</v>
+      </c>
+      <c r="CV4">
+        <v>0.577696384539228</v>
+      </c>
+      <c r="CW4">
+        <v>0.6293952115427425</v>
+      </c>
+      <c r="CX4">
+        <v>0.6632822669890351</v>
+      </c>
+      <c r="CY4">
+        <v>0.6701648625269481</v>
+      </c>
+      <c r="CZ4">
+        <v>0.6985211631704996</v>
+      </c>
+      <c r="DA4">
+        <v>0.7330554196097374</v>
+      </c>
+      <c r="DB4">
+        <v>0.746308923812865</v>
+      </c>
+      <c r="DC4">
+        <v>0.8275577872278992</v>
+      </c>
+      <c r="DD4">
+        <v>0.904706513515426</v>
+      </c>
+      <c r="DE4">
+        <v>0.9067673731397179</v>
+      </c>
+      <c r="DF4">
+        <v>0.9148151167435687</v>
+      </c>
+      <c r="DG4">
+        <v>0.9290635033475361</v>
+      </c>
+      <c r="DH4">
+        <v>0.9414918687385974</v>
+      </c>
+      <c r="DI4">
+        <v>0.9421016474381606</v>
+      </c>
+      <c r="DJ4">
+        <v>0.9609780681378516</v>
+      </c>
+      <c r="DK4">
+        <v>0.9609959015637365</v>
+      </c>
+      <c r="DL4">
+        <v>0.9699936583219713</v>
+      </c>
+      <c r="DM4">
+        <v>0.9896085497810585</v>
+      </c>
+      <c r="DN4">
+        <v>1</v>
+      </c>
+      <c r="DO4">
+        <v>1</v>
+      </c>
+      <c r="DP4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:65">
+    <row r="5" spans="1:120">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2724,120 +4536,285 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.004140177931107904</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.01450578224572394</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.01450578224572394</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.03490241917523154</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0380970108191955</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.06252135681684534</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.08454737655761223</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.08530023582052096</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.09211478418768529</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.1651906815431521</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.1896926736047371</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.1902136304521161</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.203348758819885</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.21695289819108</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.2297908642159934</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.2551446041682432</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.2551479188964069</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.2716226480242939</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.2753295722322315</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.3233695436435473</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.3237381967134257</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.3792025981189446</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.398376729476746</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.4289770696145224</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.6533194498933766</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.7600861359580847</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.762382225956751</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.8092859082555312</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.8960088883658828</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.9622767797067761</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.9893821353459706</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.9999999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0.03274599106354534</v>
+      </c>
+      <c r="CL5">
+        <v>0.09346533177508182</v>
+      </c>
+      <c r="CM5">
+        <v>0.2884968875805669</v>
+      </c>
+      <c r="CN5">
+        <v>0.320331263293706</v>
+      </c>
+      <c r="CO5">
+        <v>0.3541371645130888</v>
+      </c>
+      <c r="CP5">
+        <v>0.4207530765206869</v>
+      </c>
+      <c r="CQ5">
+        <v>0.4323938027711983</v>
+      </c>
+      <c r="CR5">
+        <v>0.4477169965704044</v>
+      </c>
+      <c r="CS5">
+        <v>0.5130063202391371</v>
+      </c>
+      <c r="CT5">
+        <v>0.5501136789044715</v>
+      </c>
+      <c r="CU5">
+        <v>0.5502071162885726</v>
+      </c>
+      <c r="CV5">
+        <v>0.5552538696302998</v>
+      </c>
+      <c r="CW5">
+        <v>0.6106464062748616</v>
+      </c>
+      <c r="CX5">
+        <v>0.6162541567933171</v>
+      </c>
+      <c r="CY5">
+        <v>0.6163475941774181</v>
+      </c>
+      <c r="CZ5">
+        <v>0.6294494009255277</v>
+      </c>
+      <c r="DA5">
+        <v>0.693700160999688</v>
+      </c>
+      <c r="DB5">
+        <v>0.7379894475888837</v>
+      </c>
+      <c r="DC5">
+        <v>0.7416331567923454</v>
+      </c>
+      <c r="DD5">
+        <v>0.8016995316224373</v>
+      </c>
+      <c r="DE5">
+        <v>0.8029593841830661</v>
+      </c>
+      <c r="DF5">
+        <v>0.8868265640170871</v>
+      </c>
+      <c r="DG5">
+        <v>0.9411172439247414</v>
+      </c>
+      <c r="DH5">
+        <v>0.9477996673432956</v>
+      </c>
+      <c r="DI5">
+        <v>0.9535522426067411</v>
+      </c>
+      <c r="DJ5">
+        <v>0.9538190930433522</v>
+      </c>
+      <c r="DK5">
+        <v>0.9594747443765839</v>
+      </c>
+      <c r="DL5">
+        <v>0.9630223067316243</v>
+      </c>
+      <c r="DM5">
+        <v>0.9630231527411374</v>
+      </c>
+      <c r="DN5">
+        <v>0.9696627219651857</v>
+      </c>
+      <c r="DO5">
+        <v>0.9710493872613943</v>
+      </c>
+      <c r="DP5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:65">
+    <row r="6" spans="1:120">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2936,100 +4913,265 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.02440320856801219</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.04069638831569067</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.05796671061683351</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.05884847312381372</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0934626064925229</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.1132114250305555</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.1140100935496401</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.1366237201075235</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.2120345640093063</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.2178156223121695</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.2267717193269044</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.2596924081801513</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.2658961837999418</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.2860596945329353</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.2954969527090218</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.3049973202118393</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.314161354941679</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.3287871897928562</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.3655025953349083</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.3861390096948704</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.4386378817211411</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.4524617785131368</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.5674670516985889</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.747097758562878</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.7535431254126777</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.7939782739583686</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.8733870545874409</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.9416190876272853</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.9779561188612873</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.9861444335789168</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.9876439481418864</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.9999999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0.1424731175609389</v>
+      </c>
+      <c r="CL6">
+        <v>0.2286712403664382</v>
+      </c>
+      <c r="CM6">
+        <v>0.2819262671859992</v>
+      </c>
+      <c r="CN6">
+        <v>0.283397104938618</v>
+      </c>
+      <c r="CO6">
+        <v>0.2852321757747436</v>
+      </c>
+      <c r="CP6">
+        <v>0.2874854270068348</v>
+      </c>
+      <c r="CQ6">
+        <v>0.2884133224079143</v>
+      </c>
+      <c r="CR6">
+        <v>0.4256412452515688</v>
+      </c>
+      <c r="CS6">
+        <v>0.567181592334428</v>
+      </c>
+      <c r="CT6">
+        <v>0.5682716434649621</v>
+      </c>
+      <c r="CU6">
+        <v>0.5961445991673389</v>
+      </c>
+      <c r="CV6">
+        <v>0.6330421273233763</v>
+      </c>
+      <c r="CW6">
+        <v>0.6337039109901832</v>
+      </c>
+      <c r="CX6">
+        <v>0.6779815149428386</v>
+      </c>
+      <c r="CY6">
+        <v>0.7106518263455845</v>
+      </c>
+      <c r="CZ6">
+        <v>0.7274952892593151</v>
+      </c>
+      <c r="DA6">
+        <v>0.7671037404356567</v>
+      </c>
+      <c r="DB6">
+        <v>0.7710634219623147</v>
+      </c>
+      <c r="DC6">
+        <v>0.8597688298845467</v>
+      </c>
+      <c r="DD6">
+        <v>0.8618784029632843</v>
+      </c>
+      <c r="DE6">
+        <v>0.9000219885100359</v>
+      </c>
+      <c r="DF6">
+        <v>0.9340417609860489</v>
+      </c>
+      <c r="DG6">
+        <v>0.935172584187716</v>
+      </c>
+      <c r="DH6">
+        <v>0.9398501792669095</v>
+      </c>
+      <c r="DI6">
+        <v>0.9400713063500025</v>
+      </c>
+      <c r="DJ6">
+        <v>0.9419938774287179</v>
+      </c>
+      <c r="DK6">
+        <v>0.9419938774287179</v>
+      </c>
+      <c r="DL6">
+        <v>0.9436856648581796</v>
+      </c>
+      <c r="DM6">
+        <v>0.9518681933327889</v>
+      </c>
+      <c r="DN6">
+        <v>0.9607335228034278</v>
+      </c>
+      <c r="DO6">
+        <v>0.9778005137868594</v>
+      </c>
+      <c r="DP6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3047,57 +5189,57 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -3106,243 +5248,228 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>0.03050648681765252</v>
+        <v>0.1109168388758852</v>
       </c>
       <c r="F2">
-        <v>0.5751424062493171</v>
+        <v>0.5047531352278316</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L2">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O2" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>0.01390212536377921</v>
+        <v>0.367334653722558</v>
       </c>
       <c r="F3">
-        <v>0.6187499640336465</v>
+        <v>0.5138585180570219</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L3">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D4">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="E4">
-        <v>0.01120330681424752</v>
+        <v>0.1041778850291988</v>
       </c>
       <c r="F4">
-        <v>0.7444749727908027</v>
+        <v>0.5633267332692448</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L4">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
-      </c>
-      <c r="O4" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="E5">
-        <v>0.01450578224572394</v>
+        <v>0.09346533177508182</v>
       </c>
       <c r="F5">
-        <v>0.6533194498933766</v>
+        <v>0.5130063202391371</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L5">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E6">
-        <v>0.02440320856801219</v>
+        <v>0.1424731175609389</v>
       </c>
       <c r="F6">
-        <v>0.5674670516985889</v>
+        <v>0.567181592334428</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L6">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O6" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3360,57 +5487,57 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -3419,243 +5546,228 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>0.03050648681765252</v>
+        <v>0.1109168388758852</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.7111169055302512</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L2">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O2" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="E3">
-        <v>0.01390212536377921</v>
+        <v>0.367334653722558</v>
       </c>
       <c r="F3">
-        <v>0.7025552117989293</v>
+        <v>0.7103929235246367</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L3">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D4">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="E4">
-        <v>0.01120330681424752</v>
+        <v>0.1041778850291988</v>
       </c>
       <c r="F4">
-        <v>0.7444749727908027</v>
+        <v>0.7330554196097374</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L4">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
-      </c>
-      <c r="O4" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="E5">
-        <v>0.01450578224572394</v>
+        <v>0.09346533177508182</v>
       </c>
       <c r="F5">
-        <v>0.7600861359580847</v>
+        <v>0.7379894475888837</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L5">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>0.02440320856801219</v>
+        <v>0.1424731175609389</v>
       </c>
       <c r="F6">
-        <v>0.747097758562878</v>
+        <v>0.7106518263455845</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L6">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O6" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3673,57 +5785,57 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -3732,243 +5844,228 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>0.03050648681765252</v>
+        <v>0.1109168388758852</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.8004352378417585</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L2">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O2" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="E3">
-        <v>0.01390212536377921</v>
+        <v>0.367334653722558</v>
       </c>
       <c r="F3">
-        <v>0.9026318650497673</v>
+        <v>0.8003398460449509</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L3">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="E4">
-        <v>0.01120330681424752</v>
+        <v>0.1041778850291988</v>
       </c>
       <c r="F4">
-        <v>0.8404282402434596</v>
+        <v>0.8275577872278992</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L4">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
-      </c>
-      <c r="O4" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.01450578224572394</v>
+        <v>0.09346533177508182</v>
       </c>
       <c r="F5">
-        <v>0.8092859082555312</v>
+        <v>0.8016995316224373</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L5">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>0.02440320856801219</v>
+        <v>0.1424731175609389</v>
       </c>
       <c r="F6">
-        <v>0.8733870545874409</v>
+        <v>0.8597688298845467</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L6">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O6" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3986,57 +6083,57 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -4045,243 +6142,228 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>0.03050648681765252</v>
+        <v>0.1109168388758852</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.9201352292053974</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L2">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O2" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="E3">
-        <v>0.01390212536377921</v>
+        <v>0.367334653722558</v>
       </c>
       <c r="F3">
-        <v>0.9026318650497673</v>
+        <v>0.9233944551348472</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L3">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O3" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D4">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>0.01120330681424752</v>
+        <v>0.1041778850291988</v>
       </c>
       <c r="F4">
-        <v>0.9055467644099239</v>
+        <v>0.904706513515426</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L4">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
-      </c>
-      <c r="O4" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="E5">
-        <v>0.01450578224572394</v>
+        <v>0.09346533177508182</v>
       </c>
       <c r="F5">
-        <v>0.9622767797067761</v>
+        <v>0.9411172439247414</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L5">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="E6">
-        <v>0.02440320856801219</v>
+        <v>0.1424731175609389</v>
       </c>
       <c r="F6">
-        <v>0.9416190876272853</v>
+        <v>0.9000219885100359</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="L6">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O6" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
